--- a/public/files/calendrier_2013-2014.xlsx
+++ b/public/files/calendrier_2013-2014.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>SEPT</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>CUP</t>
+  </si>
+  <si>
+    <t>OP FT</t>
+  </si>
+  <si>
+    <t>Bressols</t>
+  </si>
+  <si>
+    <t>brial (81)</t>
   </si>
 </sst>
 </file>
@@ -938,7 +947,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1292,9 @@
       <c r="D12" s="4">
         <v>9</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="F12" s="13"/>
       <c r="G12" s="4">
         <v>9</v>
@@ -1314,7 +1325,9 @@
       <c r="D13" s="4">
         <v>10</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" s="13"/>
       <c r="G13" s="4">
         <v>10</v>
@@ -1763,9 +1776,7 @@
       <c r="M27" s="4">
         <v>24</v>
       </c>
-      <c r="N27" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="N27" s="12"/>
       <c r="O27" s="15"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1794,9 +1805,7 @@
       <c r="M28" s="4">
         <v>25</v>
       </c>
-      <c r="N28" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="N28" s="12"/>
       <c r="O28" s="15"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1821,7 +1830,9 @@
         <v>26</v>
       </c>
       <c r="K29" s="13"/>
-      <c r="L29" s="12"/>
+      <c r="L29" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="M29" s="4">
         <v>26</v>
       </c>
@@ -1850,7 +1861,9 @@
         <v>27</v>
       </c>
       <c r="K30" s="13"/>
-      <c r="L30" s="12"/>
+      <c r="L30" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="M30" s="4">
         <v>27</v>
       </c>
